--- a/configurationData/TimezonesDST.xlsx
+++ b/configurationData/TimezonesDST.xlsx
@@ -484,7 +484,7 @@
   <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -919,7 +919,7 @@
         <v>34</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
